--- a/Selected papers.xlsx
+++ b/Selected papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leosa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BF56E-AB5C-4B58-B6D2-F783C83E5846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53B207-BC89-4630-B1C0-10854AC34B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="154">
   <si>
     <t>lead time (min)[h]</t>
   </si>
   <si>
     <t>lead time (max)[h]</t>
-  </si>
-  <si>
-    <t>remote sensing (0 or 1)</t>
   </si>
   <si>
     <t>input data</t>
@@ -58,19 +55,7 @@
     <t>study area (country)</t>
   </si>
   <si>
-    <t>public data available (1: 'fully available', 0: 'not fully available')</t>
-  </si>
-  <si>
-    <t>regression (0), classification (1), ambos (2)</t>
-  </si>
-  <si>
-    <t>output data - level (0), discharge (1), both (2)</t>
-  </si>
-  <si>
     <t>Main basic methods</t>
-  </si>
-  <si>
-    <t>rainfall and discharge</t>
   </si>
   <si>
     <t xml:space="preserve">China </t>
@@ -157,9 +142,6 @@
     <t>MARS</t>
   </si>
   <si>
-    <t>rainfall and water level and discharge</t>
-  </si>
-  <si>
     <t>MLP, SVM, LSTM</t>
   </si>
   <si>
@@ -169,13 +151,7 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">rainfall, relative humidity and air temperatura data </t>
-  </si>
-  <si>
     <t>MLP, SVM</t>
-  </si>
-  <si>
-    <t>rainfall, water level, and discharge</t>
   </si>
   <si>
     <t>AE, LSTM</t>
@@ -232,9 +208,6 @@
     <t>CNN, LSTM, CNN-LSTM</t>
   </si>
   <si>
-    <t>runoff, rainfall and air temperature</t>
-  </si>
-  <si>
     <t>MLP, LSTM, Transformer</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>rainfall and river stage</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -259,25 +229,13 @@
     <t>RF, k-Means</t>
   </si>
   <si>
-    <t>water level, discharge and rainfall</t>
-  </si>
-  <si>
     <t>LSTM, GRU</t>
-  </si>
-  <si>
-    <t>water level, rainfall, API, PET, snow cover, air temperature</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>water level and rainfall</t>
-  </si>
-  <si>
     <t>0.2167</t>
-  </si>
-  <si>
-    <t>rainfall and inflow</t>
   </si>
   <si>
     <t>Republic of Korea</t>
@@ -295,9 +253,6 @@
     <t>SVM, MLP, CNN, GRU, LSTM, Encoder-Decoder</t>
   </si>
   <si>
-    <t>discharge, upstream stage and downstream stage</t>
-  </si>
-  <si>
     <t>ELGBDT</t>
   </si>
   <si>
@@ -307,16 +262,10 @@
     <t>Ecuador</t>
   </si>
   <si>
-    <t>rainfall and reservoir inflow</t>
-  </si>
-  <si>
     <t>LSTM, GRU, CNN-LSTM, CBGR</t>
   </si>
   <si>
     <t>CGBR</t>
-  </si>
-  <si>
-    <t>rainfall, water level, tidal</t>
   </si>
   <si>
     <t>k-means, DT</t>
@@ -332,9 +281,6 @@
   </si>
   <si>
     <t>DSTGNN</t>
-  </si>
-  <si>
-    <t>runoff</t>
   </si>
   <si>
     <t>GAN, LSTM</t>
@@ -521,6 +467,39 @@
   </si>
   <si>
     <t>SVM, CGBR, GRU, LSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discharge and rainfall </t>
+  </si>
+  <si>
+    <t>rainfall, water level, API, PET, snow cover, air temperature</t>
+  </si>
+  <si>
+    <t>discharge, rainfall and water level</t>
+  </si>
+  <si>
+    <t>discharge and water level</t>
+  </si>
+  <si>
+    <t>rainfall, water level and tidal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainfall and water level </t>
+  </si>
+  <si>
+    <t>remote sensing (no: 0, yes: 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainfall, relative humidity and air temperatura </t>
+  </si>
+  <si>
+    <t>problem (regression: 0, classification: 1, both: 2)</t>
+  </si>
+  <si>
+    <t>public data available ('not fully available': 0, 'fully available': 1)</t>
+  </si>
+  <si>
+    <t>output data (level: 0, discharge: 1, both: 2)</t>
   </si>
 </sst>
 </file>
@@ -863,21 +842,21 @@
   <dimension ref="A1:V937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" style="1"/>
+    <col min="1" max="1" width="198.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.2265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.2265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.2265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
@@ -886,7 +865,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="14" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -895,31 +874,31 @@
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -934,7 +913,7 @@
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -946,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2">
         <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -964,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -982,7 +961,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -994,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2">
         <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1012,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1030,7 +1009,7 @@
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1042,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1060,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1078,7 +1057,7 @@
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1090,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
         <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1108,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1126,7 +1105,7 @@
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2">
         <v>18</v>
@@ -1138,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2">
         <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1156,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1174,7 +1153,7 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1186,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2">
         <v>60</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -1204,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1222,7 +1201,7 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1234,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2">
         <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1252,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1270,10 +1249,10 @@
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1282,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1300,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1318,7 +1297,7 @@
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1330,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
         <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1348,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1366,7 +1345,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1378,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1396,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1414,10 +1393,10 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1426,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F12" s="2">
         <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1444,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1462,7 +1441,7 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1474,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F13" s="2">
         <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1492,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1510,7 +1489,7 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1522,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F14" s="2">
         <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1540,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1558,7 +1537,7 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1570,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="F15" s="2">
         <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1588,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1606,25 +1585,25 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="F16" s="2">
         <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1636,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1654,7 +1633,7 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2">
         <v>12</v>
@@ -1666,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1684,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1702,7 +1681,7 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1714,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2">
         <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1732,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1750,7 +1729,7 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1762,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1780,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1798,10 +1777,10 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
         <v>1.5</v>
@@ -1810,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1828,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1846,7 +1825,7 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
@@ -1858,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F21" s="2">
         <v>360</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1876,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1894,7 +1873,7 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -1906,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2">
         <v>360</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1924,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1942,7 +1921,7 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B23" s="6">
         <v>15</v>
@@ -1954,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2">
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1972,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1990,7 +1969,7 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -2002,13 +1981,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F24" s="2">
         <v>60</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -2020,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2038,10 +2017,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4">
         <f>20*10/60</f>
@@ -2051,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F25" s="8">
         <v>10</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -2069,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2087,10 +2066,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8">
         <v>24</v>
@@ -2099,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F26" s="8">
         <v>5</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H26" s="8">
         <v>0</v>
@@ -2117,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2135,7 +2114,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -2147,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" s="8">
         <v>60</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -2165,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2183,7 +2162,7 @@
     </row>
     <row r="28" spans="1:22" ht="31.5" x14ac:dyDescent="0.75">
       <c r="A28" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -2195,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F28" s="8">
         <v>60</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H28" s="8">
         <v>0</v>
@@ -2213,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2231,10 +2210,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -2243,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F29" s="8">
         <v>30</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H29" s="8">
         <v>0</v>
@@ -2261,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2279,25 +2258,25 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F30" s="8">
         <v>60</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
@@ -2309,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2327,10 +2306,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -2339,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F31" s="8">
         <v>15</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H31" s="8">
         <v>0</v>
@@ -2357,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2375,7 +2354,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -2387,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F32" s="8">
         <v>60</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H32" s="8">
         <v>0</v>
@@ -2405,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2423,7 +2402,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B33" s="8">
         <v>6</v>
@@ -2434,14 +2413,14 @@
       <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>10</v>
+      <c r="E33" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F33" s="8">
         <v>60</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H33" s="8">
         <v>0</v>
@@ -2453,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2471,25 +2450,25 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>10</v>
+      <c r="E34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F34" s="8">
         <v>60</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H34" s="8">
         <v>0</v>
@@ -2498,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2519,7 +2498,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B35" s="8">
         <v>6</v>
@@ -2531,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F35" s="8">
         <v>60</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H35" s="8">
         <v>0</v>
@@ -2549,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2567,25 +2546,25 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="F36" s="8">
         <v>60</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H36" s="8">
         <v>0</v>
@@ -2597,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2615,25 +2594,25 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F37" s="8">
         <v>5</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H37" s="8">
         <v>0</v>
@@ -2645,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2663,25 +2642,25 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>79</v>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H38" s="8">
         <v>0</v>
@@ -2693,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2711,10 +2690,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
@@ -2723,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F39" s="8">
         <v>10</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H39" s="8">
         <v>0</v>
@@ -2741,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2759,7 +2738,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -2770,14 +2749,14 @@
       <c r="D40" s="8">
         <v>0</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>10</v>
+      <c r="E40" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F40" s="8">
         <v>60</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -2789,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2807,25 +2786,25 @@
     </row>
     <row r="41" spans="1:22" ht="31.5" x14ac:dyDescent="0.75">
       <c r="A41" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F41" s="8">
         <v>10</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H41" s="8">
         <v>0</v>
@@ -2837,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2855,25 +2834,25 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H42" s="8">
         <v>0</v>
@@ -2885,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2903,7 +2882,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -2915,13 +2894,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F43" s="8">
         <v>60</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H43" s="8">
         <v>0</v>
@@ -2933,10 +2912,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2951,7 +2930,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -2963,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F44" s="8">
         <v>60</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H44" s="8">
         <v>0</v>
@@ -2981,10 +2960,10 @@
         <v>1</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -2999,25 +2978,25 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H45" s="8">
         <v>0</v>
@@ -3029,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -3047,7 +3026,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B46" s="8">
         <v>3</v>
@@ -3059,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F46" s="8">
         <v>180</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H46" s="8">
         <v>0</v>
@@ -3077,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -3095,7 +3074,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B47" s="8">
         <v>6</v>
@@ -3107,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F47" s="8">
         <v>180</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H47" s="8">
         <v>0</v>
@@ -3125,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -3143,7 +3122,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A48" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B48" s="8">
         <v>1</v>
@@ -3155,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F48" s="8">
         <v>60</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H48" s="8">
         <v>0</v>
@@ -3173,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -3191,25 +3170,25 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F49" s="8">
         <v>10</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H49" s="8">
         <v>0</v>
@@ -3221,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -3239,25 +3218,25 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F50" s="8">
         <v>10</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H50" s="8">
         <v>0</v>
@@ -3269,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -3287,25 +3266,25 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A51" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B51" s="8">
         <v>8.3333332999999996E-2</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F51" s="8">
         <v>180</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H51" s="8">
         <v>0</v>
@@ -3317,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -3335,10 +3314,10 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A52" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C52" s="8">
         <v>3</v>
@@ -3347,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F52" s="8">
         <v>30</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H52" s="8">
         <v>0</v>
@@ -3365,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3383,10 +3362,10 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A53" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -3395,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F53" s="8">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H53" s="8">
         <v>0</v>
@@ -3413,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -3431,10 +3410,10 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A54" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -3443,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F54" s="8">
         <v>15</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H54" s="8">
         <v>0</v>
@@ -3461,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -23791,7 +23770,7 @@
   <customSheetViews>
     <customSheetView guid="{BBEDDA6A-6236-4A57-82AF-ACCB5A7D6CAF}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:A2" xr:uid="{AB6C923A-15EB-41D8-8470-9C5C2DC45292}"/>
+      <autoFilter ref="A1:A2" xr:uid="{E609D2CA-5711-4CDE-B407-B1ACDDB33A5F}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
